--- a/3-Design/High Level Design/class diagram.xlsx
+++ b/3-Design/High Level Design/class diagram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t xml:space="preserve">       +     Resgister( )</t>
   </si>
@@ -48,18 +48,9 @@
     <t xml:space="preserve">       +     Logout ( )</t>
   </si>
   <si>
-    <t>-        Admin_ID : int</t>
-  </si>
-  <si>
     <t>-        Email : String</t>
   </si>
   <si>
-    <t>-        Password : int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Register ( )</t>
-  </si>
-  <si>
     <t xml:space="preserve">       +     Edit personal data ( )</t>
   </si>
   <si>
@@ -78,12 +69,6 @@
     <t xml:space="preserve">       +     confirm order ( )</t>
   </si>
   <si>
-    <t>-        User_ID : int</t>
-  </si>
-  <si>
-    <t>-        Password : String</t>
-  </si>
-  <si>
     <t>-        Phone : int</t>
   </si>
   <si>
@@ -217,13 +202,25 @@
   </si>
   <si>
     <t>-        Order confirmation:String</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        Email : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        Password : int</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -         ID : int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +238,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -342,18 +347,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,26 +372,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -404,62 +435,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>18586</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6811537" y="204439"/>
-          <a:ext cx="1747025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>18585</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>148683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9293</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>176561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -500,15 +484,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1245219</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>18585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1245219</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>27878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -547,16 +531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9292</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>37170</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1251857</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -565,55 +549,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10788805" y="195146"/>
-          <a:ext cx="1300975" cy="9293"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1189463</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>176561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1189463</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176561</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5547731" y="1133707"/>
-          <a:ext cx="0" cy="390293"/>
+          <a:off x="8545286" y="457200"/>
+          <a:ext cx="8131628" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -643,13 +580,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>185853</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>185853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9293</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>185853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -688,13 +625,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>185854</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>193431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>185854</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>187569</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,9 +640,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3735659" y="185854"/>
-          <a:ext cx="0" cy="4293219"/>
+        <a:xfrm flipH="1">
+          <a:off x="3732085" y="568569"/>
+          <a:ext cx="1715" cy="4894385"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -733,13 +670,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>195146</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>18586</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -780,13 +717,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>195146</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27878</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -826,15 +763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>195146</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176561</xdr:rowOff>
+      <xdr:colOff>179906</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>229901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>18586</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176562</xdr:rowOff>
+      <xdr:colOff>3346</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>229902</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -843,147 +780,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3744951" y="4460488"/>
-          <a:ext cx="631903" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>808465</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>815009</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18586</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Connector 80"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7606830" y="377687"/>
-          <a:ext cx="6544" cy="2867803"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>799170</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27878</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9293</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610707" y="3122341"/>
-          <a:ext cx="957147" cy="9293"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2414954</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>832339</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6770077" y="363415"/>
-          <a:ext cx="873370" cy="11723"/>
+          <a:off x="3723206" y="5464841"/>
+          <a:ext cx="631160" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1012,14 +810,59 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11384280" y="4564381"/>
+          <a:ext cx="7620" cy="2712719"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>6626</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1056,26 +899,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>17931</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6626</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10791948" y="3226904"/>
-          <a:ext cx="591669" cy="6626"/>
+        <a:xfrm flipV="1">
+          <a:off x="11401425" y="351305"/>
+          <a:ext cx="656665" cy="5883"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1104,25 +947,434 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:colOff>826675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:colOff>19850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353161" y="4622587"/>
+          <a:ext cx="1838403" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800057" y="3218329"/>
+          <a:ext cx="600635" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1097280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13190220" y="838201"/>
+          <a:ext cx="1089660" cy="7619"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1132114</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9209314" y="870857"/>
+          <a:ext cx="1317172" cy="4354"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>853441</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7368540" y="7246620"/>
+          <a:ext cx="4023361" cy="15241"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11401425" y="351305"/>
-          <a:ext cx="656665" cy="5883"/>
+          <a:off x="7391400" y="861060"/>
+          <a:ext cx="0" cy="6393180"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32658</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8534400" y="446314"/>
+          <a:ext cx="10886" cy="3516087"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1088572</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1110343</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14260286" y="870857"/>
+          <a:ext cx="21771" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1132115</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1153886</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9209315" y="859971"/>
+          <a:ext cx="21771" cy="3091543"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2446020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6797040" y="853440"/>
+          <a:ext cx="617220" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1414,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:K56"/>
+  <dimension ref="E2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,373 +1679,404 @@
     <col min="3" max="3" width="31.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="35.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E1" s="7" t="s">
+    <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="2"/>
+      <c r="K3" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="20"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="22"/>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="1"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="20"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="15"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="F18" s="15"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="15"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="15"/>
+      <c r="G20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="11"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E3" s="8" t="s">
+    </row>
+    <row r="21" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="20"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="14" t="s">
+    </row>
+    <row r="25" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="15"/>
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="20"/>
+      <c r="F28" s="18"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="K30" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="8" t="s">
+    <row r="31" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="K31" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K32" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="1"/>
-      <c r="G16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E18" s="11"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F21" s="1"/>
-      <c r="G21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F22" s="1"/>
-      <c r="G22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="11"/>
-      <c r="G24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
-      <c r="G28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F29" s="1"/>
-      <c r="G29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F30" s="1"/>
-      <c r="G30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F31" s="1"/>
-      <c r="G31" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="G16:G17"/>
+  <mergeCells count="10">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/3-Design/High Level Design/class diagram.xlsx
+++ b/3-Design/High Level Design/class diagram.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73EA065-2CF8-48AB-9318-A4ED10C3DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t xml:space="preserve">       +     Resgister( )</t>
   </si>
@@ -93,21 +103,6 @@
     <t>Restaurant menu page</t>
   </si>
   <si>
-    <t xml:space="preserve">       +     View restaurant name ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View item description ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View price items ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Increase quantity item ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Decrease quantity item ( )</t>
-  </si>
-  <si>
     <t xml:space="preserve">       +     Place order ( )</t>
   </si>
   <si>
@@ -135,15 +130,6 @@
     <t>-        Loyalty points : int</t>
   </si>
   <si>
-    <t xml:space="preserve">       +     View order name ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View order quantity ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View total price ( )</t>
-  </si>
-  <si>
     <t xml:space="preserve">       +     View delivery address ( )</t>
   </si>
   <si>
@@ -214,12 +200,21 @@
   </si>
   <si>
     <t xml:space="preserve"> -         ID : int</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     View restaurant data ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     View item data ( )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,10 +355,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,22 +372,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +404,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +441,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Elbow Connector 43"/>
+        <xdr:cNvPr id="44" name="Elbow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -485,9 +484,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1245219</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>18585</xdr:rowOff>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -497,13 +496,19 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13297829" y="2574073"/>
-          <a:ext cx="0" cy="390293"/>
+          <a:off x="17430750" y="2585357"/>
+          <a:ext cx="6969" cy="1456628"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -544,7 +549,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -591,7 +602,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Connector 63"/>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -636,7 +653,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Connector 65"/>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -681,7 +704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -728,7 +757,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -775,7 +810,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Straight Arrow Connector 74"/>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -822,7 +863,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="Straight Connector 80"/>
+        <xdr:cNvPr id="81" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -867,7 +914,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Straight Connector 95"/>
+        <xdr:cNvPr id="96" name="Straight Connector 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -912,7 +965,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -959,7 +1018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1004,7 +1069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1049,7 +1120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1094,7 +1171,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1139,7 +1222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1184,7 +1273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Connector 54"/>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1229,7 +1324,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Connector 58"/>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1274,7 +1375,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1321,7 +1428,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Straight Arrow Connector 68"/>
+        <xdr:cNvPr id="69" name="Straight Arrow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1368,7 +1481,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Straight Arrow Connector 78"/>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1665,404 +1784,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" customWidth="1"/>
-    <col min="9" max="9" width="32.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="19" t="s">
+    <row r="2" spans="5:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="5:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="5:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="18" spans="5:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="5:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="19"/>
+      <c r="K21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="5:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="15"/>
+      <c r="F28" s="13"/>
+      <c r="I28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="I29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="I30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="20"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="22"/>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="20"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="10"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="15"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="F18" s="15"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F19" s="15"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F20" s="15"/>
-      <c r="G20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="20"/>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="20"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="14"/>
-      <c r="G25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F26" s="15"/>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E27" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E28" s="20"/>
-      <c r="F28" s="18"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="K30" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E31" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="K31" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K32" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="K33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K34" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/3-Design/High Level Design/class diagram.xlsx
+++ b/3-Design/High Level Design/class diagram.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BAAFCC-5BD6-4F23-B45E-D318F4C4C91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$8:$F$120</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,180 +31,291 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t xml:space="preserve">       +     Add restaurant ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Delete restaurant ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Add restaurant items ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Delete restaurant items ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Add restaurant offers ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Delete restaurant offers ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Edit personal data ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Select restaurant ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     confirm order ( )</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     Place order ( )</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>-        Restaurant name : string</t>
   </si>
   <si>
-    <t>-        Price : Float</t>
-  </si>
-  <si>
-    <t>-        Quantity : int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View Loyalty points ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View Web logo icon ( )</t>
-  </si>
-  <si>
-    <t>Thanks page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View thanks phrase ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View order confirmation ( )</t>
-  </si>
-  <si>
-    <t>-        Thanks phrase  : string</t>
-  </si>
-  <si>
-    <t>-        Order confirmation:String</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -        Email : String</t>
   </si>
   <si>
-    <t xml:space="preserve">       +     View restaurant data ( )</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -        ConfirmPassword : string</t>
   </si>
   <si>
     <t xml:space="preserve"> -        Password : string</t>
   </si>
   <si>
-    <t xml:space="preserve"> -         ID : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        Phone : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     login ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     logout ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        City : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -       zone: string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     register ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     search meal ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +      use loyalty points ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     select address ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +    place order ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        Logo : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        location : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +     View menu item data ( )</t>
-  </si>
-  <si>
-    <t>Menu Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -         name : string</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        discount : string</t>
-  </si>
-  <si>
-    <t>Confirm order</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        loyality : Boolean</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        array&lt;menu items&gt; : object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       +    total price ( )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        Total items Price : float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">notation </t>
-  </si>
-  <si>
-    <t>inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggregation </t>
-  </si>
-  <si>
-    <t>composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -        has offer : boolean </t>
+    <t>login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     Page_Load ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     loginBtnClicked ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     IsValidEmailAddress(string email)</t>
+  </si>
+  <si>
+    <t>add menu item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + addItemClick()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        connectionString : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        QueryString : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    connectionString : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    QueryString : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    restName : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -   item : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -   photoPath : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -   price : string</t>
+  </si>
+  <si>
+    <t>add offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    resturantName : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    offer : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -    description : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     addOfferBtnClick ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        resturantLogoPath : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        connectionString : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     addRestClick ( )</t>
+  </si>
+  <si>
+    <t>Delete Menu Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     afterRestSelection ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selectedRest : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        deleteItemSqlCommand : string </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selectedItem : string</t>
+  </si>
+  <si>
+    <t>Delete offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +     Page_Load( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +    afterRestSelection ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selectedRest : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selectedoffer : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        deleteOfferSqlCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete restaurant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      deleteRestClick ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        resturantName : String</t>
+  </si>
+  <si>
+    <t>Delete user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        userId : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        idSqlCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +    deleteUserClick ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        delUserSqlCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        isIdExist : boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forget password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      resetBtnClicked ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        isValidEmail : boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        isValidPassword : boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        email : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        newPassword : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        confirmPassword : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        emailSqlCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +        Page_Load( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidEmailAddress (string email )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidNewPassword ( string password, string confirmPassword)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +     Page_Load( )</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +    afterAreaSelection ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selecedItem : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +    goBtnClicked ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        selectedArea : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        loggedEmail : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       +    myAccClick ( )</t>
+  </si>
+  <si>
+    <t>MyAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        phoneNum : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        userName : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        Pass : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        usernameSqlCommand : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        phoneSqlCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        passSqlCommand : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      saveBtnClicked ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        usernameField : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        emailField : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        phoneField : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        passwordField : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      homeNavClick ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        isUnique : bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidUserName (string username )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidPhone (string phone )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidPassword (string password )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      userNameChanged ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      Page_Load( )</t>
+  </si>
+  <si>
+    <t>registeration(reg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      regBtnClicked ( )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        email : string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        phone : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        Password : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -        insertCommand : String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         +      IsValidPassword (string password, string  confirm password)</t>
+  </si>
+  <si>
+    <t>Database Connection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -300,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -375,85 +485,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,19 +512,57 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,44 +584,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1875117</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>127533</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2895653</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>18677</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1640649</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>165049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Arrow: Bent-Up 4">
+        <xdr:cNvPr id="28" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BACF75-540D-A850-AC2C-54845C01A14B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3219823" y="986651"/>
-          <a:ext cx="1020536" cy="2916732"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5380557" y="22530413"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 10185"/>
-            <a:gd name="adj2" fmla="val 16286"/>
-            <a:gd name="adj3" fmla="val 24335"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -569,48 +650,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1537607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1050472</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1918607</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>261257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Arrow: Bent-Up 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460E0EED-5E9C-4F57-955D-63519CC7CD86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Down Arrow 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="6326255" y="957088"/>
-          <a:ext cx="1036864" cy="2180559"/>
+        <a:xfrm rot="10800000">
+          <a:off x="6272893" y="1907721"/>
+          <a:ext cx="381000" cy="22345650"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 10185"/>
-            <a:gd name="adj2" fmla="val 16286"/>
-            <a:gd name="adj3" fmla="val 24335"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -641,40 +704,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53663</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1807029</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1494116</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>56031</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3632733</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Arrow: Left-Up 11">
+        <xdr:cNvPr id="30" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2210325-20B6-5438-5BC3-06174B602BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7209379" y="8250529"/>
-          <a:ext cx="1475441" cy="2551312"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7269228" y="22133087"/>
+          <a:ext cx="371878" cy="1825704"/>
         </a:xfrm>
-        <a:prstGeom prst="leftUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9754"/>
-            <a:gd name="adj2" fmla="val 10000"/>
-            <a:gd name="adj3" fmla="val 17222"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -708,23 +770,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1244970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>37354</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1817915</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>195943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2888499</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>329829</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3643619</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>252135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Arrow: Left-Up 12">
+        <xdr:cNvPr id="31" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436AFC91-5B87-433A-B769-59472F809B12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,16 +794,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1313512" y="7626165"/>
-          <a:ext cx="4195857" cy="1643529"/>
+          <a:off x="7280114" y="13359201"/>
+          <a:ext cx="371878" cy="1825704"/>
         </a:xfrm>
-        <a:prstGeom prst="leftUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9754"/>
-            <a:gd name="adj2" fmla="val 10000"/>
-            <a:gd name="adj3" fmla="val 17222"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -776,31 +837,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1139265</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
+      <xdr:colOff>1817915</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1307353</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:colOff>3643619</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99736</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Arrow: Down 13">
+        <xdr:cNvPr id="32" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8C6CA2-9145-168F-D1D8-113EA87E9B0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4874559" y="8142941"/>
-          <a:ext cx="168088" cy="541618"/>
+        <a:xfrm rot="5400000">
+          <a:off x="7280114" y="8471516"/>
+          <a:ext cx="371878" cy="1825704"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -841,23 +902,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1807029</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2894851</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>18682</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3632733</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Arrow: Left-Up 17">
+        <xdr:cNvPr id="33" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90EF8EF7-B3E1-4541-9F38-C2F637FFAA9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -865,16 +926,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-2252853" y="10301478"/>
-          <a:ext cx="10289806" cy="2672602"/>
+          <a:off x="7269228" y="5652115"/>
+          <a:ext cx="371878" cy="1825704"/>
         </a:xfrm>
-        <a:prstGeom prst="leftUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 6681"/>
-            <a:gd name="adj2" fmla="val 7855"/>
-            <a:gd name="adj3" fmla="val 10014"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -908,23 +968,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>720535</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2831352</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>50616</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3654504</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Arrow: Left-Up 18">
+        <xdr:cNvPr id="34" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22027307-8245-4D30-9EA1-E9821F3C60C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,16 +992,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="-495677" y="9026711"/>
-          <a:ext cx="7210242" cy="2110817"/>
+          <a:off x="7290999" y="2429944"/>
+          <a:ext cx="371878" cy="1825704"/>
         </a:xfrm>
-        <a:prstGeom prst="leftUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 7774"/>
-            <a:gd name="adj2" fmla="val 10000"/>
-            <a:gd name="adj3" fmla="val 12709"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -976,43 +1035,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>529743</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>121848</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1466554</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>803088</xdr:rowOff>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Arrow: Bent-Up 21">
+        <xdr:cNvPr id="35" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993CCA8B-3302-4871-B637-42552ACF37A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="4392823" y="14132150"/>
-          <a:ext cx="681240" cy="936811"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5358787" y="18949013"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 10185"/>
-            <a:gd name="adj2" fmla="val 16286"/>
-            <a:gd name="adj3" fmla="val 24335"/>
-          </a:avLst>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1048,31 +1101,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485587</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>373528</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1456764</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>634999</xdr:rowOff>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Arrow: Down 22">
+        <xdr:cNvPr id="36" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1813637A-2E29-4AD9-86A3-066FF9F3C455}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4575734" y="15053234"/>
-          <a:ext cx="261471" cy="971177"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5358787" y="15792156"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1114,35 +1167,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1111247</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>37351</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1307353</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Arrow: Left-Right 23">
+        <xdr:cNvPr id="37" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6A2AA4-A69D-FFE1-817D-528B3C697ECC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4823196" y="14852461"/>
-          <a:ext cx="1288677" cy="196106"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5358787" y="12319613"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1177,35 +1233,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>379502</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>174065</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1830294</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>485589</xdr:rowOff>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Arrow: Left-Right 25">
+        <xdr:cNvPr id="38" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5544DD37-5067-4371-A45A-7E5F4138265E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4114796" y="16105094"/>
-          <a:ext cx="1450792" cy="311524"/>
+        <a:xfrm rot="16200000">
+          <a:off x="5358787" y="9794128"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1239,20 +1298,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>40340</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>18677</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>67078</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Arrow: Down 26">
+        <xdr:cNvPr id="39" name="Arrow: Down 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
@@ -1263,8 +1322,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="8394115" y="15083184"/>
-          <a:ext cx="295048" cy="2621189"/>
+          <a:off x="5358787" y="6005899"/>
+          <a:ext cx="371878" cy="1618879"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1618879</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Arrow: Down 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC149E8-58B8-4435-B381-3F6C0D5D8240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5358787" y="2533356"/>
+          <a:ext cx="371878" cy="1618879"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -1568,417 +1693,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:K75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="51" zoomScaleSheetLayoutView="77" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="77" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="79.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="38.109375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="27" t="s">
+    <row r="2" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="3:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="7" t="s">
+    <row r="19" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="6"/>
+      <c r="E23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="15"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="15"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="6"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="9"/>
+      <c r="E41" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="3"/>
-      <c r="D10" s="8" t="s">
+      <c r="E42" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="6"/>
+      <c r="E43" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="3:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="3:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="27" t="s">
+      <c r="E50" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="7"/>
+      <c r="E53" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="28"/>
-      <c r="E16" s="30"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="11" t="s">
+      <c r="E54" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="11" t="s">
+      <c r="E60" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="7"/>
+      <c r="E63" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="25"/>
-    </row>
-    <row r="34" spans="3:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="12" t="s">
+      <c r="E70" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="7"/>
+      <c r="E75" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-    </row>
-    <row r="42" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="26"/>
-    </row>
-    <row r="45" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="7" t="s">
+    <row r="77" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D50" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="26"/>
-      <c r="F59" s="25"/>
-    </row>
-    <row r="60" spans="4:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D60" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D61" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="D62" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D63" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="68" spans="3:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="23"/>
-    </row>
-    <row r="70" spans="3:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="22" t="s">
+      <c r="E81" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D70" s="23"/>
-    </row>
-    <row r="71" spans="3:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="23"/>
-    </row>
-    <row r="72" spans="3:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+    </row>
+    <row r="85" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E91" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="21"/>
+    </row>
+    <row r="111" spans="3:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="22"/>
+    </row>
+    <row r="112" spans="3:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="23"/>
+    </row>
+    <row r="113" spans="3:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="3:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
+  <mergeCells count="13">
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="93" max="6" man="1"/>
+    <brk id="110" max="6" man="1"/>
+  </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
+    <brk id="6" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
